--- a/dates.xlsx
+++ b/dates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Pictures\MayDayMystery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BE9DC1-92F9-4FB8-85A1-3CEB3514E7CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273DF5DA-2094-4B74-B517-5550AB924CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="14">
   <si>
     <t>♦</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>B23</t>
+  </si>
+  <si>
+    <t>RE-SCAN</t>
+  </si>
+  <si>
+    <t>AWAITING DUPLICATION</t>
+  </si>
+  <si>
+    <t>RE-SCAN, PAGE NUM</t>
+  </si>
+  <si>
+    <t>RRS</t>
+  </si>
+  <si>
+    <t>RRS, PAGE NUM</t>
   </si>
 </sst>
 </file>
@@ -671,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -721,6 +736,8 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,7 +1099,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1190,9 @@
       <c r="G4" s="15">
         <v>24</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
@@ -1182,7 +1201,7 @@
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="11">
+      <c r="E5" s="25">
         <v>36495</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1191,7 +1210,9 @@
       <c r="G5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="16" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
@@ -1560,7 +1581,7 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
-      <c r="E29" s="11">
+      <c r="E29" s="25">
         <v>39203</v>
       </c>
       <c r="F29" s="13" t="s">
@@ -1569,7 +1590,9 @@
       <c r="G29" s="15">
         <v>25</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
@@ -1596,7 +1619,7 @@
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
-      <c r="E31" s="11">
+      <c r="E31" s="25">
         <v>39540</v>
       </c>
       <c r="F31" s="13" t="s">
@@ -1605,7 +1628,9 @@
       <c r="G31" s="15">
         <v>14</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
@@ -1616,7 +1641,7 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="11">
+      <c r="E32" s="25">
         <v>39569</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -1625,7 +1650,9 @@
       <c r="G32" s="15">
         <v>13</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
@@ -1687,7 +1714,9 @@
       <c r="C36" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="13"/>
+      <c r="D36" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" s="8">
         <v>40298</v>
       </c>
@@ -1755,7 +1784,9 @@
       <c r="C40" s="14">
         <v>20</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>12</v>
+      </c>
       <c r="E40" s="8">
         <v>41030</v>
       </c>
@@ -1810,7 +1841,7 @@
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
+      <c r="A44" s="26">
         <v>34090</v>
       </c>
       <c r="B44" s="13" t="s">
@@ -1819,7 +1850,9 @@
       <c r="C44" s="14">
         <v>16</v>
       </c>
-      <c r="D44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="E44" s="8">
         <v>42125</v>
       </c>
@@ -1893,7 +1926,9 @@
       <c r="G48" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="16"/>
+      <c r="H48" s="16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="12">

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273DF5DA-2094-4B74-B517-5550AB924CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E1BF7-E831-4631-95DC-C53844D9B956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,9 +52,6 @@
     <t>RE-SCAN</t>
   </si>
   <si>
-    <t>AWAITING DUPLICATION</t>
-  </si>
-  <si>
     <t>RE-SCAN, PAGE NUM</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>RRS, PAGE NUM</t>
+  </si>
+  <si>
+    <t>DUP</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -737,7 +737,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1099,7 +1098,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1191,7 +1190,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1211,7 +1210,7 @@
         <v>6</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1641,7 +1640,7 @@
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
-      <c r="E32" s="25">
+      <c r="E32" s="11">
         <v>39569</v>
       </c>
       <c r="F32" s="13" t="s">
@@ -1651,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1715,7 +1714,7 @@
         <v>6</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="8">
         <v>40298</v>
@@ -1785,7 +1784,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="8">
         <v>41030</v>
@@ -1841,8 +1840,8 @@
       <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
-        <v>34090</v>
+      <c r="A44" s="17">
+        <v>34092</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>1</v>
@@ -1851,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="8">
         <v>42125</v>
@@ -1927,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="H48" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E1BF7-E831-4631-95DC-C53844D9B956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674D39A-2313-4E6B-A2BC-F86823A87322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1455" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
   <si>
     <t>♦</t>
   </si>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>DUP</t>
+  </si>
+  <si>
+    <t>BBB 1969</t>
+  </si>
+  <si>
+    <t>1647 Virgina Street</t>
+  </si>
+  <si>
+    <t>May Day 1992</t>
+  </si>
+  <si>
+    <t>Lammas Day, MD 1992</t>
   </si>
 </sst>
 </file>
@@ -686,7 +698,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -737,6 +749,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1095,10 +1110,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2009,6 +2024,36 @@
       <c r="G53" s="22"/>
       <c r="H53" s="23"/>
     </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>26420</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>33817</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F674D39A-2313-4E6B-A2BC-F86823A87322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F36D2-1A65-4AA0-8E55-62D681B74588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="1455" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t>♦</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Page</t>
   </si>
   <si>
@@ -52,28 +49,37 @@
     <t>RE-SCAN</t>
   </si>
   <si>
-    <t>RE-SCAN, PAGE NUM</t>
-  </si>
-  <si>
     <t>RRS</t>
-  </si>
-  <si>
-    <t>RRS, PAGE NUM</t>
   </si>
   <si>
     <t>DUP</t>
   </si>
   <si>
-    <t>BBB 1969</t>
+    <t>6A</t>
   </si>
   <si>
-    <t>1647 Virgina Street</t>
+    <t>RRS, RIPPED</t>
   </si>
   <si>
-    <t>May Day 1992</t>
+    <t>6 + 7</t>
   </si>
   <si>
-    <t>Lammas Day, MD 1992</t>
+    <t>Missing, see footnote (1)</t>
+  </si>
+  <si>
+    <t>Footnote</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>2 weeks missing from this 2004 volume, including this. Not in unbound form, not at any other University/Library. May only exist in the ADW building...</t>
+  </si>
+  <si>
+    <t>:'(</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +232,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -698,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -716,7 +731,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,6 +765,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1110,949 +1141,1005 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="27"/>
+    <col min="10" max="10" width="137" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>7</v>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+      <c r="I1" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>29707</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="7">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="26">
         <v>35916</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+      <c r="G2" s="14">
+        <v>20</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
         <v>29822</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8">
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7">
         <v>36131</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="F3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>30072</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11">
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10">
         <v>36280</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>24</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>30425</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10">
+        <v>36495</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>30435</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10">
+        <v>36647</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>32</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>30621</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="7">
+        <v>36789</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>30642</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7">
+        <v>36809</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>30803</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7">
+        <v>36866</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>30938</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="7">
+        <v>36908</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>31121</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7">
+        <v>36985</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>31168</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10">
+        <v>37012</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>31533</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="7">
+        <v>37230</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>31875</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10">
+        <v>37377</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>20</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>31898</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7">
+        <v>37525</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>32034</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7">
+        <v>37594</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>32162</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="7">
+        <v>37742</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>32175</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="7">
+        <v>37958</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>32195</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="31">
+        <v>38108</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>32237</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="7">
+        <v>38154</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>32260</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7">
+        <v>38203</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>32414</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="7">
+        <v>38322</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>32477</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="7">
+        <v>38392</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>32547</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10">
+        <v>38471</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>30425</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="25">
-        <v>36495</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="H24" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>32575</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10">
+        <v>38525</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <v>15</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>32629</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="13">
+        <v>24</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="7">
+        <v>38693</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>32778</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="10">
+        <v>38838</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14">
+        <v>12</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>32848</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="7">
+        <v>39057</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>32953</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="24">
+        <v>39203</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="16" t="s">
+      <c r="G29" s="14">
+        <v>25</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>32994</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="13">
+        <v>25</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="7">
+        <v>39421</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>33121</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="24">
+        <v>39540</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="14">
+        <v>14</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>33170</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="10">
+        <v>39569</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="14">
+        <v>13</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>30435</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="8">
-        <v>36647</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>30621</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="8">
-        <v>36789</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>30642</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="8">
-        <v>36809</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>30803</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="8">
-        <v>36866</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>30938</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="8">
-        <v>36908</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>31121</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="8">
-        <v>36985</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>31168</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="8">
-        <v>37012</v>
-      </c>
-      <c r="F12" s="13" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>33212</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="7">
+        <v>39792</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>33254</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="7">
+        <v>40156</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>33317</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="7">
+        <v>40263</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>33359</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>31533</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="8">
-        <v>37230</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>31875</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8">
-        <v>37377</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="C36" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="7">
+        <v>40298</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>33478</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="7">
+        <v>40520</v>
+      </c>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>33576</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="7">
+        <v>40664</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>33625</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="7">
+        <v>40884</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>33725</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>31898</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8">
-        <v>37525</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>32034</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8">
-        <v>37594</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>32162</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8">
-        <v>37742</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>32175</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8">
-        <v>37958</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>32195</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8">
-        <v>38108</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="C40" s="13">
+        <v>20</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="7">
+        <v>41030</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>33849</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="7">
+        <v>41444</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>33940</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="7">
+        <v>41760</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>34038</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="7">
+        <v>41815</v>
+      </c>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>34092</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>32237</v>
-      </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8">
-        <v>38154</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>32264</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8">
-        <v>38203</v>
-      </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>32414</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8">
-        <v>38322</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>32477</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8">
-        <v>38392</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>32547</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8">
-        <v>38471</v>
-      </c>
-      <c r="F24" s="13" t="s">
+      <c r="C44" s="13">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="7">
+        <v>42125</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>34304</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="7">
+        <v>42340</v>
+      </c>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>34453</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>32575</v>
-      </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="8">
-        <v>38525</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>32629</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="8">
-        <v>38693</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>32778</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="8">
-        <v>38838</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>32848</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="8">
-        <v>39057</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>32953</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="25">
-        <v>39203</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="C46" s="13">
+        <v>16</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="7">
+        <v>42452</v>
+      </c>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>34675</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="7">
+        <v>42490</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>34820</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="15">
-        <v>25</v>
-      </c>
-      <c r="H29" s="16" t="s">
+      <c r="C48" s="13">
+        <v>16</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="10">
+        <v>42711</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>32994</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="8">
-        <v>39421</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>33121</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="25">
-        <v>39540</v>
-      </c>
-      <c r="F31" s="13" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>35039</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="7">
+        <v>42856</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>35186</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="15">
-        <v>14</v>
-      </c>
-      <c r="H31" s="16" t="s">
+      <c r="C50" s="13">
+        <v>24</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>33170</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="11">
-        <v>39569</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="15">
-        <v>13</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>33212</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="8">
-        <v>39792</v>
-      </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>33254</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="8">
-        <v>40156</v>
-      </c>
-      <c r="F34" s="13"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>33317</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="8">
-        <v>40263</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="17">
-        <v>33359</v>
-      </c>
-      <c r="B36" s="13" t="s">
+      <c r="E50" s="7">
+        <v>43033</v>
+      </c>
+      <c r="F50" s="12"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>35403</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="7">
+        <v>43221</v>
+      </c>
+      <c r="F51" s="12"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>35551</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="8">
-        <v>40298</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G36" s="15"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
-        <v>33478</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="8">
-        <v>40520</v>
-      </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
-        <v>33576</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="8">
-        <v>40664</v>
-      </c>
-      <c r="F38" s="13"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
-        <v>33625</v>
-      </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="8">
-        <v>40884</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="15"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="17">
-        <v>33725</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="14">
-        <v>20</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="8">
-        <v>41030</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
-        <v>33849</v>
-      </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="8">
-        <v>41444</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="15"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
-        <v>33940</v>
-      </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="8">
-        <v>41760</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
-        <v>34038</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="8">
-        <v>41815</v>
-      </c>
-      <c r="F43" s="13"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="17">
-        <v>34092</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="14">
-        <v>16</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="8">
-        <v>42125</v>
-      </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
-        <v>34304</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="8">
-        <v>42340</v>
-      </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12">
-        <v>34455</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="8">
-        <v>42452</v>
-      </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
-        <v>34675</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="8">
-        <v>42490</v>
-      </c>
-      <c r="F47" s="13"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="12">
-        <v>34820</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="11">
-        <v>42711</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
-        <v>35039</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="8">
-        <v>42856</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="12">
-        <v>35186</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="8">
-        <v>43033</v>
-      </c>
-      <c r="F50" s="13"/>
-      <c r="G50" s="15"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="12">
-        <v>35403</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="8">
-        <v>43221</v>
-      </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="15"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="12">
-        <v>35551</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="8">
+      <c r="C52" s="13">
+        <v>28</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="7">
         <v>43586</v>
       </c>
-      <c r="F52" s="13"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="16"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="18">
+      <c r="A53" s="17">
         <v>35765</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="21">
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="20">
         <v>43635</v>
       </c>
-      <c r="F53" s="19"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="23"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>26420</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>33817</v>
-      </c>
-      <c r="D55" t="s">
-        <v>17</v>
-      </c>
+        <v>32470</v>
+      </c>
+      <c r="D54" s="32">
+        <v>2002</v>
+      </c>
+      <c r="E54" s="25"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
+      <c r="A56" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7F36D2-1A65-4AA0-8E55-62D681B74588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4172B-BADC-4D8C-B829-4A8060C1E599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
   <si>
     <t>♦</t>
   </si>
@@ -713,7 +713,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -783,6 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1143,8 +1144,8 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2092,9 @@
       <c r="E51" s="7">
         <v>43221</v>
       </c>
-      <c r="F51" s="12"/>
+      <c r="F51" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="G51" s="14"/>
       <c r="H51" s="15"/>
     </row>
@@ -2111,7 +2114,7 @@
       <c r="E52" s="7">
         <v>43586</v>
       </c>
-      <c r="F52" s="12"/>
+      <c r="F52" s="33"/>
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF4172B-BADC-4D8C-B829-4A8060C1E599}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EDB3AF-867D-46FB-B675-C94FDC33FB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="2700" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1455" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
   <si>
     <t>♦</t>
   </si>
@@ -76,10 +76,13 @@
     <t>#</t>
   </si>
   <si>
-    <t>2 weeks missing from this 2004 volume, including this. Not in unbound form, not at any other University/Library. May only exist in the ADW building...</t>
+    <t>Archives missing April 29th 2004 - May 11th 2004. Not in unbound form, not at any other University/Library. May only exist in the ADW building...</t>
   </si>
   <si>
-    <t>:'(</t>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A13</t>
   </si>
 </sst>
 </file>
@@ -242,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +423,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -713,7 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -784,6 +793,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1144,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,7 +1221,7 @@
       <c r="G2" s="14">
         <v>20</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="35" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="27" t="s">
@@ -1254,7 +1265,7 @@
       <c r="G4" s="14">
         <v>24</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1274,7 +1285,7 @@
       <c r="G5" s="14">
         <v>12</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1294,7 +1305,7 @@
       <c r="G6" s="14">
         <v>32</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1309,8 +1320,10 @@
         <v>36789</v>
       </c>
       <c r="F7" s="12"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="14">
+        <v>24</v>
+      </c>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1386,7 +1399,7 @@
       <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1420,7 +1433,7 @@
       <c r="G14" s="14">
         <v>20</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1469,8 +1482,10 @@
       <c r="F17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="14">
+        <v>14</v>
+      </c>
+      <c r="H17" s="35"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1498,15 +1513,15 @@
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
       <c r="E19" s="31">
-        <v>38108</v>
+        <v>38107</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="15" t="s">
+      <c r="G19" s="14">
+        <v>32</v>
+      </c>
+      <c r="H19" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1534,7 +1549,7 @@
       <c r="C21" s="13">
         <v>16</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="7">
@@ -1594,7 +1609,7 @@
       <c r="G24" s="14">
         <v>11</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1614,7 +1629,7 @@
       <c r="G25" s="14">
         <v>15</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1628,7 +1643,7 @@
       <c r="C26" s="13">
         <v>24</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="7">
@@ -1654,7 +1669,7 @@
       <c r="G27" s="14">
         <v>12</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1690,7 +1705,7 @@
       <c r="G29" s="14">
         <v>25</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1704,7 +1719,7 @@
       <c r="C30" s="13">
         <v>25</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="7">
@@ -1732,7 +1747,7 @@
       <c r="G31" s="14">
         <v>14</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="35" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1787,8 +1802,10 @@
         <v>40156</v>
       </c>
       <c r="F34" s="12"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
+      <c r="G34" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -1818,7 +1835,7 @@
       <c r="C36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="7">
@@ -1875,8 +1892,10 @@
       <c r="F39" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="15"/>
+      <c r="G39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -1888,7 +1907,7 @@
       <c r="C40" s="13">
         <v>20</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="7">
@@ -1990,7 +2009,7 @@
       <c r="C46" s="13">
         <v>16</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="7">
@@ -2026,7 +2045,7 @@
       <c r="C48" s="13">
         <v>16</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="34" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="10">
@@ -2038,7 +2057,7 @@
       <c r="G48" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="15" t="s">
+      <c r="H48" s="35" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2070,7 +2089,7 @@
       <c r="C50" s="13">
         <v>24</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="7">
@@ -2108,7 +2127,7 @@
       <c r="C52" s="13">
         <v>28</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="34" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="7">

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EDB3AF-867D-46FB-B675-C94FDC33FB91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7ABB7A-9FB0-4C05-9151-82739D616D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="1455" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>♦</t>
   </si>
@@ -83,6 +83,27 @@
   </si>
   <si>
     <t>A13</t>
+  </si>
+  <si>
+    <t>2009 Mayday</t>
+  </si>
+  <si>
+    <t>2012 early Dec.</t>
+  </si>
+  <si>
+    <t>2013 mayday + early dec</t>
+  </si>
+  <si>
+    <t>2014 early dec.</t>
+  </si>
+  <si>
+    <t>2017 early dec</t>
+  </si>
+  <si>
+    <t>2018 early dec</t>
+  </si>
+  <si>
+    <t>2019 early dec</t>
   </si>
 </sst>
 </file>
@@ -92,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +259,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -722,7 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -772,9 +801,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,6 +821,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1153,10 +1192,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,8 +1208,8 @@
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="27"/>
-    <col min="10" max="10" width="137" style="28" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="26"/>
+    <col min="10" max="10" width="137" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,10 +1237,10 @@
       <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1212,7 +1251,7 @@
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
       <c r="D2" s="12"/>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>35916</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -1221,13 +1260,13 @@
       <c r="G2" s="14">
         <v>20</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1265,7 +1304,7 @@
       <c r="G4" s="14">
         <v>24</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1285,7 +1324,7 @@
       <c r="G5" s="14">
         <v>12</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1305,7 +1344,7 @@
       <c r="G6" s="14">
         <v>32</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1323,7 +1362,7 @@
       <c r="G7" s="14">
         <v>24</v>
       </c>
-      <c r="H7" s="35"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1399,7 +1438,7 @@
       <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1433,7 +1472,7 @@
       <c r="G14" s="14">
         <v>20</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1485,7 +1524,7 @@
       <c r="G17" s="14">
         <v>14</v>
       </c>
-      <c r="H17" s="35"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1512,7 +1551,7 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12"/>
-      <c r="E19" s="31">
+      <c r="E19" s="30">
         <v>38107</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -1521,7 +1560,7 @@
       <c r="G19" s="14">
         <v>32</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="34" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1549,7 +1588,7 @@
       <c r="C21" s="13">
         <v>16</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="7">
@@ -1609,7 +1648,7 @@
       <c r="G24" s="14">
         <v>11</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1629,7 +1668,7 @@
       <c r="G25" s="14">
         <v>15</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1643,7 +1682,7 @@
       <c r="C26" s="13">
         <v>24</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="7">
@@ -1669,7 +1708,7 @@
       <c r="G27" s="14">
         <v>12</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1705,7 +1744,7 @@
       <c r="G29" s="14">
         <v>25</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1719,7 +1758,7 @@
       <c r="C30" s="13">
         <v>25</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="7">
@@ -1747,7 +1786,7 @@
       <c r="G31" s="14">
         <v>14</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1805,7 +1844,7 @@
       <c r="G34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="35"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -1835,7 +1874,7 @@
       <c r="C36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="7">
@@ -1895,7 +1934,7 @@
       <c r="G39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="35"/>
+      <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -1907,7 +1946,7 @@
       <c r="C40" s="13">
         <v>20</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="7">
@@ -2009,7 +2048,7 @@
       <c r="C46" s="13">
         <v>16</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="7">
@@ -2045,7 +2084,7 @@
       <c r="C48" s="13">
         <v>16</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="10">
@@ -2057,7 +2096,7 @@
       <c r="G48" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="34" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2089,7 +2128,7 @@
       <c r="C50" s="13">
         <v>24</v>
       </c>
-      <c r="D50" s="34" t="s">
+      <c r="D50" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="7">
@@ -2127,13 +2166,13 @@
       <c r="C52" s="13">
         <v>28</v>
       </c>
-      <c r="D52" s="34" t="s">
+      <c r="D52" s="33" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="7">
         <v>43586</v>
       </c>
-      <c r="F52" s="33"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="14"/>
       <c r="H52" s="15"/>
     </row>
@@ -2152,16 +2191,68 @@
       <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="A54" s="35">
         <v>32470</v>
       </c>
-      <c r="D54" s="32">
+      <c r="B54" s="37"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="37">
         <v>2002</v>
       </c>
-      <c r="E54" s="25"/>
+      <c r="E54" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7ABB7A-9FB0-4C05-9151-82739D616D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE85EDA9-5D22-45B9-BE1A-E8EB6DE699BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="1455" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -834,6 +834,7 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -879,7 +880,47 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1194,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H56" sqref="H56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1330,7 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="40">
         <v>30072</v>
       </c>
       <c r="B4" s="12"/>
@@ -2255,6 +2296,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A57 E2:E57">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>OR(WEEKDAY(A2)=1,WEEKDAY(A2)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE85EDA9-5D22-45B9-BE1A-E8EB6DE699BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC82F01B-5A82-46E8-8F6D-5E7B59391D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>♦</t>
   </si>
@@ -85,15 +85,9 @@
     <t>A13</t>
   </si>
   <si>
-    <t>2009 Mayday</t>
-  </si>
-  <si>
     <t>2012 early Dec.</t>
   </si>
   <si>
-    <t>2013 mayday + early dec</t>
-  </si>
-  <si>
     <t>2014 early dec.</t>
   </si>
   <si>
@@ -104,6 +98,39 @@
   </si>
   <si>
     <t>2019 early dec</t>
+  </si>
+  <si>
+    <t>Not in 11/26 to 12/5</t>
+  </si>
+  <si>
+    <t>2013 early dec</t>
+  </si>
+  <si>
+    <t>2013 mayday</t>
+  </si>
+  <si>
+    <t>Not in 5/1… maybe +- days?</t>
+  </si>
+  <si>
+    <t>Not in 11/27 to 12/4 or 12/11</t>
+  </si>
+  <si>
+    <t>Not in 12/3 or 12/11</t>
+  </si>
+  <si>
+    <t>Not in week, roughly</t>
+  </si>
+  <si>
+    <t>Not in 12/4 to 12/10</t>
+  </si>
+  <si>
+    <t>Weird error, next issue?</t>
+  </si>
+  <si>
+    <t>4/29/2016 - 5/1/2016</t>
+  </si>
+  <si>
+    <t>10/25/2017 - 11/1/2017</t>
   </si>
 </sst>
 </file>
@@ -751,7 +778,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -819,7 +846,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -828,13 +854,31 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -880,37 +924,11 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="1">
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
         <strike val="0"/>
         <color theme="0"/>
       </font>
@@ -1233,10 +1251,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1262,7 @@
     <col min="1" max="1" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="31" customWidth="1"/>
     <col min="5" max="5" width="30.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -1263,7 +1281,7 @@
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="40" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="23" t="s">
@@ -1291,7 +1309,7 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="13"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="25">
         <v>35916</v>
       </c>
@@ -1301,7 +1319,7 @@
       <c r="G2" s="14">
         <v>20</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="26" t="s">
@@ -1319,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="13"/>
-      <c r="D3" s="12"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="7">
         <v>36131</v>
       </c>
@@ -1330,12 +1348,12 @@
       <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="38">
         <v>30072</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="10">
         <v>36280</v>
       </c>
@@ -1345,7 +1363,7 @@
       <c r="G4" s="14">
         <v>24</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1355,7 +1373,7 @@
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="12"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="10">
         <v>36495</v>
       </c>
@@ -1365,7 +1383,7 @@
       <c r="G5" s="14">
         <v>12</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1375,7 +1393,7 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="10">
         <v>36647</v>
       </c>
@@ -1385,7 +1403,7 @@
       <c r="G6" s="14">
         <v>32</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1395,7 +1413,7 @@
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="7">
         <v>36789</v>
       </c>
@@ -1403,7 +1421,7 @@
       <c r="G7" s="14">
         <v>24</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
@@ -1413,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="7">
         <v>36809</v>
       </c>
@@ -1427,7 +1445,7 @@
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="7">
         <v>36866</v>
       </c>
@@ -1441,7 +1459,7 @@
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="12"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="7">
         <v>36908</v>
       </c>
@@ -1455,7 +1473,7 @@
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="7">
         <v>36985</v>
       </c>
@@ -1469,7 +1487,7 @@
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="10">
         <v>37012</v>
       </c>
@@ -1479,7 +1497,7 @@
       <c r="G12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1489,7 +1507,7 @@
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="7">
         <v>37230</v>
       </c>
@@ -1503,7 +1521,7 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="10">
         <v>37377</v>
       </c>
@@ -1513,7 +1531,7 @@
       <c r="G14" s="14">
         <v>20</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1523,7 +1541,7 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="7">
         <v>37525</v>
       </c>
@@ -1539,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="13"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="7">
         <v>37594</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="7">
         <v>37742</v>
       </c>
@@ -1565,7 +1583,7 @@
       <c r="G17" s="14">
         <v>14</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1575,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="7">
         <v>37958</v>
       </c>
@@ -1591,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="30">
         <v>38107</v>
       </c>
@@ -1601,7 +1619,7 @@
       <c r="G19" s="14">
         <v>32</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1611,7 +1629,7 @@
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="7">
         <v>38154</v>
       </c>
@@ -1629,7 +1647,7 @@
       <c r="C21" s="13">
         <v>16</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="7">
@@ -1645,7 +1663,7 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="7">
         <v>38322</v>
       </c>
@@ -1661,7 +1679,7 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="7">
         <v>38392</v>
       </c>
@@ -1679,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="10">
         <v>38471</v>
       </c>
@@ -1689,7 +1707,7 @@
       <c r="G24" s="14">
         <v>11</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1699,7 +1717,7 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="10">
         <v>38525</v>
       </c>
@@ -1709,7 +1727,7 @@
       <c r="G25" s="14">
         <v>15</v>
       </c>
-      <c r="H25" s="34" t="s">
+      <c r="H25" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1723,7 +1741,7 @@
       <c r="C26" s="13">
         <v>24</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="7">
@@ -1741,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="10">
         <v>38838</v>
       </c>
@@ -1749,7 +1767,7 @@
       <c r="G27" s="14">
         <v>12</v>
       </c>
-      <c r="H27" s="34" t="s">
+      <c r="H27" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1759,7 +1777,7 @@
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="41"/>
       <c r="E28" s="7">
         <v>39057</v>
       </c>
@@ -1775,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="41"/>
       <c r="E29" s="24">
         <v>39203</v>
       </c>
@@ -1785,7 +1803,7 @@
       <c r="G29" s="14">
         <v>25</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="H29" s="33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1799,7 +1817,7 @@
       <c r="C30" s="13">
         <v>25</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="7">
@@ -1817,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="13"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="41"/>
       <c r="E31" s="24">
         <v>39540</v>
       </c>
@@ -1827,7 +1845,7 @@
       <c r="G31" s="14">
         <v>14</v>
       </c>
-      <c r="H31" s="34" t="s">
+      <c r="H31" s="33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1839,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="41"/>
       <c r="E32" s="10">
         <v>39569</v>
       </c>
@@ -1861,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="7">
         <v>39792</v>
       </c>
@@ -1877,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="13"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="7">
         <v>40156</v>
       </c>
@@ -1885,7 +1903,7 @@
       <c r="G34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="34"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
@@ -1895,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="7">
         <v>40263</v>
       </c>
@@ -1915,7 +1933,7 @@
       <c r="C36" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="7">
@@ -1924,7 +1942,9 @@
       <c r="F36" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="14">
+        <v>6</v>
+      </c>
       <c r="H36" s="15"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="41"/>
       <c r="E37" s="7">
         <v>40520</v>
       </c>
@@ -1951,12 +1971,14 @@
         <v>0</v>
       </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="7">
-        <v>40664</v>
+        <v>40662</v>
       </c>
       <c r="F38" s="12"/>
-      <c r="G38" s="14"/>
+      <c r="G38" s="14">
+        <v>5</v>
+      </c>
       <c r="H38" s="15"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1965,7 +1987,7 @@
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="41"/>
       <c r="E39" s="7">
         <v>40884</v>
       </c>
@@ -1975,7 +1997,7 @@
       <c r="G39" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="34"/>
+      <c r="H39" s="33"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
@@ -1987,14 +2009,16 @@
       <c r="C40" s="13">
         <v>20</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="7">
         <v>41030</v>
       </c>
       <c r="F40" s="12"/>
-      <c r="G40" s="14"/>
+      <c r="G40" s="14">
+        <v>8</v>
+      </c>
       <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,7 +2027,7 @@
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="7">
         <v>41444</v>
       </c>
@@ -2019,12 +2043,14 @@
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="41"/>
       <c r="E42" s="7">
         <v>41760</v>
       </c>
       <c r="F42" s="12"/>
-      <c r="G42" s="14"/>
+      <c r="G42" s="14">
+        <v>5</v>
+      </c>
       <c r="H42" s="15"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2035,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="7">
         <v>41815</v>
       </c>
@@ -2053,15 +2079,19 @@
       <c r="C44" s="13">
         <v>16</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="41" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="7">
         <v>42125</v>
       </c>
       <c r="F44" s="12"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
+      <c r="G44" s="14">
+        <v>15</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
@@ -2071,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="C45" s="13"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="41"/>
       <c r="E45" s="7">
         <v>42340</v>
       </c>
@@ -2089,7 +2119,7 @@
       <c r="C46" s="13">
         <v>16</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="7">
@@ -2107,12 +2137,14 @@
         <v>0</v>
       </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="7">
-        <v>42490</v>
+      <c r="D47" s="41"/>
+      <c r="E47" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="F47" s="12"/>
-      <c r="G47" s="14"/>
+      <c r="G47" s="14">
+        <v>18</v>
+      </c>
       <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2125,7 +2157,7 @@
       <c r="C48" s="13">
         <v>16</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="42" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="10">
@@ -2137,7 +2169,7 @@
       <c r="G48" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H48" s="34" t="s">
+      <c r="H48" s="33" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2149,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="41"/>
       <c r="E49" s="7">
         <v>42856</v>
       </c>
@@ -2169,14 +2201,16 @@
       <c r="C50" s="13">
         <v>24</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="7">
-        <v>43033</v>
+      <c r="E50" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="F50" s="12"/>
-      <c r="G50" s="14"/>
+      <c r="G50" s="14">
+        <v>14</v>
+      </c>
       <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2187,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="13"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="41"/>
       <c r="E51" s="7">
         <v>43221</v>
       </c>
@@ -2207,7 +2241,7 @@
       <c r="C52" s="13">
         <v>28</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="42" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="7">
@@ -2223,7 +2257,7 @@
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="19"/>
-      <c r="D53" s="18"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="20">
         <v>43635</v>
       </c>
@@ -2232,72 +2266,101 @@
       <c r="H53" s="22"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35">
+      <c r="A54" s="34">
         <v>32470</v>
       </c>
-      <c r="B54" s="37"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37">
+      <c r="B54" s="36"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36">
         <v>2002</v>
       </c>
-      <c r="E54" s="39" t="s">
-        <v>24</v>
+      <c r="E54" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="F54" t="s">
         <v>2</v>
       </c>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
-        <v>21</v>
+      <c r="A55" s="39">
+        <v>39934</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39" t="s">
-        <v>25</v>
+      <c r="C55" s="9">
+        <v>8</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>23</v>
       </c>
       <c r="F55" t="s">
         <v>2</v>
       </c>
+      <c r="H55" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
-        <v>22</v>
+      <c r="A56" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="39" t="s">
+      <c r="D56" s="31" t="s">
         <v>26</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>24</v>
       </c>
       <c r="F56" t="s">
         <v>2</v>
       </c>
+      <c r="H56" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>23</v>
+      <c r="A57" s="37" t="s">
+        <v>28</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39" t="s">
-        <v>27</v>
+      <c r="D57" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>25</v>
       </c>
       <c r="F57" t="s">
         <v>2</v>
       </c>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A57 E2:E57">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>OR(WEEKDAY(A2)=1,WEEKDAY(A2)=7)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC82F01B-5A82-46E8-8F6D-5E7B59391D6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188F1F1-9C86-42D6-A6B8-3D450634F07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -484,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,7 +784,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -879,6 +885,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1253,8 +1263,8 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1955,7 @@
       <c r="G36" s="14">
         <v>6</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="47"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
@@ -1979,7 +1989,7 @@
       <c r="G38" s="14">
         <v>5</v>
       </c>
-      <c r="H38" s="15"/>
+      <c r="H38" s="47"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
@@ -2019,7 +2029,7 @@
       <c r="G40" s="14">
         <v>8</v>
       </c>
-      <c r="H40" s="15"/>
+      <c r="H40" s="47"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
@@ -2051,7 +2061,7 @@
       <c r="G42" s="14">
         <v>5</v>
       </c>
-      <c r="H42" s="15"/>
+      <c r="H42" s="47"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
@@ -2089,7 +2099,7 @@
       <c r="G44" s="14">
         <v>15</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H44" s="47" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2145,7 +2155,7 @@
       <c r="G47" s="14">
         <v>18</v>
       </c>
-      <c r="H47" s="15"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
@@ -2211,7 +2221,7 @@
       <c r="G50" s="14">
         <v>14</v>
       </c>
-      <c r="H50" s="15"/>
+      <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
@@ -2294,7 +2304,7 @@
       <c r="C55" s="9">
         <v>8</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="46" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="37" t="s">

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6188F1F1-9C86-42D6-A6B8-3D450634F07B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13F3DAF-9ED6-4D30-B0A2-5DF7B003027D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21600" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1263,8 +1263,8 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +1680,9 @@
       <c r="F22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="14">
+        <v>10</v>
+      </c>
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">

--- a/dates.xlsx
+++ b/dates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellag\Documents\GitHub\maydaymystery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13F3DAF-9ED6-4D30-B0A2-5DF7B003027D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652DFDD4-DFD3-4DDE-B5BA-283CE86B75E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1455" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="37">
   <si>
     <t>♦</t>
   </si>
@@ -1263,8 +1263,8 @@
   </sheetPr>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2369,6 +2369,12 @@
       <c r="D58" s="31" t="s">
         <v>30</v>
       </c>
+      <c r="E58" s="1">
+        <v>41416</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A57 E2:E57">
